--- a/aimms_model/energy_hub/results/FIP_0.19/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/FIP_0.19/results_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="17175" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="11820" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Operating_cost_per_technology" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>21352.485958707257</v>
+        <v>106762.42979358774</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>112097.70106412702</v>
+        <v>560488.50532082759</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>4080.4600667089348</v>
+        <v>20402.300333554325</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11707.982111142092</v>
+        <v>58539.910555731134</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13610.834711386367</v>
+        <v>68054.173556931884</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3731.7604097116487</v>
+        <v>18658.802048558253</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36397.937162764109</v>
+        <v>181989.68581382051</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>33059.742762382826</v>
+        <v>165298.71381191415</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>29164.706435127839</v>
+        <v>145823.53217570033</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>160203.62033803322</v>
+        <v>801018.1016903792</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>46670.577473769197</v>
+        <v>233352.88736884604</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>221505.83559840039</v>
+        <v>1107529.1781126847</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>221505.83559840039</v>
+        <v>1107529.1781126847</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3656.9132202519345</v>
+        <v>18284.566101259665</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3656.9132202519345</v>
+        <v>18284.566101259665</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>3993.3578090638202</v>
+        <v>19966.78904413246</v>
       </c>
     </row>
   </sheetData>

--- a/aimms_model/energy_hub/results/FIP_0.19/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/FIP_0.19/results_costs.xlsx
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>106762.42979358774</v>
+        <v>258689.07744961671</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>560488.50532082759</v>
+        <v>482527.86493794486</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>20402.300333554325</v>
+        <v>49435.482700635344</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>58539.910555731134</v>
+        <v>50397.354782405797</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>68054.173556931884</v>
+        <v>65011.989312073565</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>18658.802048558253</v>
+        <v>41369.761811594937</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>181989.68581382051</v>
+        <v>159876.08225319145</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>165298.71381191415</v>
+        <v>157909.46614978107</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>145823.53217570033</v>
+        <v>349494.32196184702</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>801018.1016903792</v>
+        <v>692801.30197354208</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>233352.88736884604</v>
+        <v>222921.45546185464</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1107529.1781126847</v>
+        <v>1010280.4773187026</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1107529.1781126847</v>
+        <v>1010280.4773187026</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>18284.566101259665</v>
+        <v>27873.041618610343</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>18284.566101259665</v>
+        <v>27873.041618610343</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>19966.78904413246</v>
+        <v>20312.48869429954</v>
       </c>
     </row>
   </sheetData>
